--- a/2021/Symphony/Others/Price List/Price List - 02.10.2021.xlsx
+++ b/2021/Symphony/Others/Price List/Price List - 02.10.2021.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="90">
   <si>
     <t>Model Name</t>
   </si>
@@ -283,7 +283,10 @@
     <t>Z22  (2GB+32GB)</t>
   </si>
   <si>
-    <t>Last Updated on: 31/12/2021</t>
+    <t>Last Updated on: 02/01/202</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -2950,11 +2953,11 @@
     <tabColor rgb="FF00B050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O18" sqref="O18"/>
+      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2966,10 +2969,12 @@
     <col min="5" max="5" width="14.42578125" style="7" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" style="12" customWidth="1"/>
     <col min="7" max="7" width="29.85546875" style="7" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="7"/>
+    <col min="8" max="9" width="9.140625" style="7"/>
+    <col min="10" max="10" width="17.5703125" style="7" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>38</v>
       </c>
@@ -2980,7 +2985,7 @@
       <c r="F1" s="22"/>
       <c r="G1" s="22"/>
     </row>
-    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>65</v>
       </c>
@@ -2991,7 +2996,7 @@
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
     </row>
-    <row r="3" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>88</v>
       </c>
@@ -3002,7 +3007,7 @@
       <c r="F3" s="29"/>
       <c r="G3" s="30"/>
     </row>
-    <row r="4" spans="1:7" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>49</v>
       </c>
@@ -3025,7 +3030,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>1</v>
       </c>
@@ -3048,7 +3053,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>2</v>
       </c>
@@ -3071,7 +3076,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>3</v>
       </c>
@@ -3094,7 +3099,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>4</v>
       </c>
@@ -3117,7 +3122,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>5</v>
       </c>
@@ -3140,7 +3145,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>6</v>
       </c>
@@ -3163,7 +3168,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>7</v>
       </c>
@@ -3186,7 +3191,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>8</v>
       </c>
@@ -3209,7 +3214,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>9</v>
       </c>
@@ -3232,7 +3237,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>10</v>
       </c>
@@ -3255,7 +3260,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>11</v>
       </c>
@@ -3278,7 +3283,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>12</v>
       </c>
@@ -3299,6 +3304,9 @@
       </c>
       <c r="G16" s="9" t="s">
         <v>19</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
